--- a/第4章excel/excel资料/第4章/课堂文件/课堂文件-图表.xlsx
+++ b/第4章excel/excel资料/第4章/课堂文件/课堂文件-图表.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" updateLinks="never" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="创建图表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="图表元素" sheetId="4" r:id="rId4"/>
-    <sheet name="Chart1" sheetId="5" r:id="rId5"/>
-    <sheet name="各科成绩优秀率1" sheetId="6" r:id="rId6"/>
+    <sheet name="Chart12" sheetId="5" r:id="rId5"/>
+    <sheet name="各科成绩优秀率12" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="86">
   <si>
     <t>编号</t>
   </si>
@@ -836,6 +836,164 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>创建图表!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>优秀率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>创建图表!$B$48:$G$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>计算机基础</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>高等数学</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>大学英语</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>普通物理</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>革命史</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>体育</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>创建图表!$B$50:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20454545454545456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="222286208"/>
+        <c:axId val="222287744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="222286208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222287744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222287744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222286208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -948,12 +1106,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="155127808"/>
-        <c:axId val="155130112"/>
+        <c:axId val="183201152"/>
+        <c:axId val="195045248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="155127808"/>
+        <c:axId val="183201152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +1120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155130112"/>
+        <c:crossAx val="195045248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -970,7 +1128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155130112"/>
+        <c:axId val="195045248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +1139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155127808"/>
+        <c:crossAx val="183201152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1012,7 +1170,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1027,6 +1185,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1114,11 +1273,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155146880"/>
-        <c:axId val="155173248"/>
+        <c:axId val="195078400"/>
+        <c:axId val="195088384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155146880"/>
+        <c:axId val="195078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,7 +1286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155173248"/>
+        <c:crossAx val="195088384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,7 +1294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155173248"/>
+        <c:axId val="195088384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,13 +1305,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155146880"/>
+        <c:crossAx val="195078400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1163,7 +1323,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1226,16 +1386,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[2]案例!$B$48:$G$48</c:f>
@@ -1291,16 +1441,17 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155652480"/>
-        <c:axId val="155654016"/>
+        <c:axId val="195833856"/>
+        <c:axId val="195835392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1322,16 +1473,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>[2]案例!$B$48:$G$48</c:f>
@@ -1388,8 +1529,9 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1397,11 +1539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155661440"/>
-        <c:axId val="155655552"/>
+        <c:axId val="195851008"/>
+        <c:axId val="195836928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155652480"/>
+        <c:axId val="195833856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155654016"/>
+        <c:crossAx val="195835392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1418,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155654016"/>
+        <c:axId val="195835392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,12 +1571,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155652480"/>
+        <c:crossAx val="195833856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155655552"/>
+        <c:axId val="195836928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,22 +1586,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155661440"/>
+        <c:crossAx val="195851008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="155661440"/>
+        <c:axId val="195851008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155655552"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="195836928"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1514,7 +1656,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1525,7 +1667,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1533,6 +1675,41 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1569,11 +1746,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302750" cy="6080125"/>
+    <xdr:ext cx="9305774" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -1596,7 +1773,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -1703,11 +1880,11 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303712" cy="6080606"/>
+    <xdr:ext cx="9305774" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -1730,7 +1907,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2235,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5050,17 +5227,1056 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>98</v>
+      </c>
+      <c r="F2" s="4">
+        <v>86.5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>73.5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>84</v>
+      </c>
+      <c r="G3" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>75.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>87</v>
+      </c>
+      <c r="E4" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>78</v>
+      </c>
+      <c r="G4" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>79.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>98.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>96</v>
+      </c>
+      <c r="G5" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>84.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>89.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>98.5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>78.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5">
+        <v>88</v>
+      </c>
+      <c r="C10" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>83</v>
+      </c>
+      <c r="E10" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>72</v>
+      </c>
+      <c r="G10" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5">
+        <v>92</v>
+      </c>
+      <c r="C11" s="4">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4">
+        <v>97</v>
+      </c>
+      <c r="E11" s="4">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4">
+        <v>75</v>
+      </c>
+      <c r="G11" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5">
+        <v>93</v>
+      </c>
+      <c r="C12" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>92</v>
+      </c>
+      <c r="E12" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>87</v>
+      </c>
+      <c r="G12" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5">
+        <v>93.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>85.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>77</v>
+      </c>
+      <c r="E13" s="4">
+        <v>81</v>
+      </c>
+      <c r="F13" s="4">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5">
+        <v>96</v>
+      </c>
+      <c r="C14" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4">
+        <v>86</v>
+      </c>
+      <c r="F14" s="4">
+        <v>62</v>
+      </c>
+      <c r="G14" s="4">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
+        <v>96.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>86.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>94</v>
+      </c>
+      <c r="F15" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5">
+        <v>97.5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>76</v>
+      </c>
+      <c r="D16" s="4">
+        <v>72</v>
+      </c>
+      <c r="E16" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>85</v>
+      </c>
+      <c r="E17" s="4">
+        <v>83</v>
+      </c>
+      <c r="F17" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5">
+        <v>58.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>90</v>
+      </c>
+      <c r="D18" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>97</v>
+      </c>
+      <c r="F18" s="4">
+        <v>72</v>
+      </c>
+      <c r="G18" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>78.5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>79.5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="5">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4">
+        <v>89.5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5">
+        <v>72.5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>60.5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>87</v>
+      </c>
+      <c r="F21" s="4">
+        <v>77</v>
+      </c>
+      <c r="G21" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>67</v>
+      </c>
+      <c r="E22" s="4">
+        <v>94</v>
+      </c>
+      <c r="F22" s="4">
+        <v>78</v>
+      </c>
+      <c r="G22" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5">
+        <v>75.5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>75</v>
+      </c>
+      <c r="E23" s="4">
+        <v>92</v>
+      </c>
+      <c r="F23" s="4">
+        <v>86</v>
+      </c>
+      <c r="G23" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5">
+        <v>76.5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4">
+        <v>75</v>
+      </c>
+      <c r="F24" s="4">
+        <v>87</v>
+      </c>
+      <c r="G24" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4">
+        <v>60.5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>66.5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>84</v>
+      </c>
+      <c r="F25" s="4">
+        <v>98</v>
+      </c>
+      <c r="G25" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="5">
+        <v>80.5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4">
+        <v>66</v>
+      </c>
+      <c r="F26" s="4">
+        <v>61</v>
+      </c>
+      <c r="G26" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5">
+        <v>83.5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>78.5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>100</v>
+      </c>
+      <c r="F27" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5">
+        <v>84.5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>78.5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>72</v>
+      </c>
+      <c r="G28" s="4">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5">
+        <v>92.5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>77</v>
+      </c>
+      <c r="E29" s="4">
+        <v>73</v>
+      </c>
+      <c r="F29" s="4">
+        <v>57</v>
+      </c>
+      <c r="G29" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5">
+        <v>95</v>
+      </c>
+      <c r="C30" s="4">
+        <v>95</v>
+      </c>
+      <c r="D30" s="4">
+        <v>70</v>
+      </c>
+      <c r="E30" s="4">
+        <v>89.5</v>
+      </c>
+      <c r="F30" s="4">
+        <v>61.5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5">
+        <v>97</v>
+      </c>
+      <c r="C31" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="D31" s="4">
+        <v>73</v>
+      </c>
+      <c r="E31" s="4">
+        <v>81</v>
+      </c>
+      <c r="F31" s="4">
+        <v>66</v>
+      </c>
+      <c r="G31" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="C32" s="4">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4">
+        <v>57</v>
+      </c>
+      <c r="E32" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="F32" s="4">
+        <v>88</v>
+      </c>
+      <c r="G32" s="4">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="C33" s="4">
+        <v>57.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>85</v>
+      </c>
+      <c r="E33" s="4">
+        <v>59</v>
+      </c>
+      <c r="F33" s="4">
+        <v>79</v>
+      </c>
+      <c r="G33" s="4">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="5">
+        <v>63.5</v>
+      </c>
+      <c r="C34" s="4">
+        <v>73</v>
+      </c>
+      <c r="D34" s="4">
+        <v>65</v>
+      </c>
+      <c r="E34" s="4">
+        <v>95</v>
+      </c>
+      <c r="F34" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="G34" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="5">
+        <v>68</v>
+      </c>
+      <c r="C35" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>61</v>
+      </c>
+      <c r="E35" s="4">
+        <v>57</v>
+      </c>
+      <c r="F35" s="4">
+        <v>60</v>
+      </c>
+      <c r="G35" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="5">
+        <v>71.5</v>
+      </c>
+      <c r="C36" s="4">
+        <v>61.5</v>
+      </c>
+      <c r="D36" s="4">
+        <v>82</v>
+      </c>
+      <c r="E36" s="4">
+        <v>57.5</v>
+      </c>
+      <c r="F36" s="4">
+        <v>57</v>
+      </c>
+      <c r="G36" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="5">
+        <v>71.5</v>
+      </c>
+      <c r="C37" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>88</v>
+      </c>
+      <c r="E37" s="4">
+        <v>63</v>
+      </c>
+      <c r="F37" s="4">
+        <v>88</v>
+      </c>
+      <c r="G37" s="4">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5">
+        <v>75</v>
+      </c>
+      <c r="C38" s="4">
+        <v>71</v>
+      </c>
+      <c r="D38" s="4">
+        <v>86</v>
+      </c>
+      <c r="E38" s="4">
+        <v>60.5</v>
+      </c>
+      <c r="F38" s="4">
+        <v>60</v>
+      </c>
+      <c r="G38" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="5">
+        <v>75.5</v>
+      </c>
+      <c r="C39" s="4">
+        <v>60.5</v>
+      </c>
+      <c r="D39" s="4">
+        <v>85</v>
+      </c>
+      <c r="E39" s="4">
+        <v>57</v>
+      </c>
+      <c r="F39" s="4">
+        <v>76</v>
+      </c>
+      <c r="G39" s="4">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="5">
+        <v>76</v>
+      </c>
+      <c r="C40" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>84</v>
+      </c>
+      <c r="E40" s="4">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4">
+        <v>65</v>
+      </c>
+      <c r="G40" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="5">
+        <v>81</v>
+      </c>
+      <c r="C41" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="D41" s="4">
+        <v>61</v>
+      </c>
+      <c r="E41" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="F41" s="4">
+        <v>81</v>
+      </c>
+      <c r="G41" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="5">
+        <v>85.5</v>
+      </c>
+      <c r="C42" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="D42" s="4">
+        <v>74</v>
+      </c>
+      <c r="E42" s="4">
+        <v>78.5</v>
+      </c>
+      <c r="F42" s="4">
+        <v>64</v>
+      </c>
+      <c r="G42" s="4">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="5">
+        <v>86.5</v>
+      </c>
+      <c r="C43" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="D43" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="F43" s="4">
+        <v>62</v>
+      </c>
+      <c r="G43" s="4">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="5">
+        <v>94</v>
+      </c>
+      <c r="C44" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="D44" s="4">
+        <v>78</v>
+      </c>
+      <c r="E44" s="4">
+        <v>60.5</v>
+      </c>
+      <c r="F44" s="4">
+        <v>76</v>
+      </c>
+      <c r="G44" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="5">
+        <v>96.5</v>
+      </c>
+      <c r="C45" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>63</v>
+      </c>
+      <c r="E45" s="4">
+        <v>66</v>
+      </c>
+      <c r="F45" s="4">
+        <v>71</v>
+      </c>
+      <c r="G45" s="4">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5084,7 +6300,7 @@
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/第4章excel/excel资料/第4章/课堂文件/课堂文件-图表.xlsx
+++ b/第4章excel/excel资料/第4章/课堂文件/课堂文件-图表.xlsx
@@ -924,11 +924,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="222286208"/>
-        <c:axId val="222287744"/>
+        <c:axId val="171305600"/>
+        <c:axId val="187204736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="222286208"/>
+        <c:axId val="171305600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222287744"/>
+        <c:crossAx val="187204736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -945,7 +945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222287744"/>
+        <c:axId val="187204736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222286208"/>
+        <c:crossAx val="171305600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -979,6 +979,340 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高志毅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>计算机基础</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>高等数学</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>大学英语</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>普通物理</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>革命史</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>体育</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0_ ">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>戴威</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>计算机基础</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>高等数学</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>大学英语</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>普通物理</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>革命史</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>体育</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0_ ">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>张倩倩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>计算机基础</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>高等数学</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>大学英语</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>普通物理</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>革命史</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>体育</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0_ ">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>鲁帆</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0_ ">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="218217088"/>
+        <c:axId val="218334336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="218217088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="218334336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="218334336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="218217088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1106,12 +1440,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="183201152"/>
-        <c:axId val="195045248"/>
+        <c:axId val="187655296"/>
+        <c:axId val="187674624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="183201152"/>
+        <c:axId val="187655296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195045248"/>
+        <c:crossAx val="187674624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1128,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195045248"/>
+        <c:axId val="187674624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183201152"/>
+        <c:crossAx val="187655296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1170,7 +1504,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1185,7 +1519,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1273,11 +1606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195078400"/>
-        <c:axId val="195088384"/>
+        <c:axId val="187974016"/>
+        <c:axId val="187975552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195078400"/>
+        <c:axId val="187974016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195088384"/>
+        <c:crossAx val="187975552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1294,7 +1627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195088384"/>
+        <c:axId val="187975552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,14 +1638,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195078400"/>
+        <c:crossAx val="187974016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1323,7 +1655,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1450,8 +1782,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195833856"/>
-        <c:axId val="195835392"/>
+        <c:axId val="187787904"/>
+        <c:axId val="187793792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1539,11 +1871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195851008"/>
-        <c:axId val="195836928"/>
+        <c:axId val="187796864"/>
+        <c:axId val="187795328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195833856"/>
+        <c:axId val="187787904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195835392"/>
+        <c:crossAx val="187793792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195835392"/>
+        <c:axId val="187793792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,12 +1903,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195833856"/>
+        <c:crossAx val="187787904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195836928"/>
+        <c:axId val="187795328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,12 +1918,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195851008"/>
+        <c:crossAx val="187796864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="195851008"/>
+        <c:axId val="187796864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195836928"/>
+        <c:crossAx val="187795328"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +1999,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1713,6 +2045,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1746,7 +2113,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -1773,7 +2140,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -1880,11 +2247,11 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305774" cy="6077857"/>
+    <xdr:ext cx="9303712" cy="6080606"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -1907,7 +2274,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2412,7 +2779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:I45"/>
     </sheetView>
   </sheetViews>
@@ -5236,7 +5603,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6279,6 +6646,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/第4章excel/excel资料/第4章/课堂文件/课堂文件-图表.xlsx
+++ b/第4章excel/excel资料/第4章/课堂文件/课堂文件-图表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" updateLinks="never" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="创建图表" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -924,11 +923,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171305600"/>
-        <c:axId val="187204736"/>
+        <c:axId val="178457216"/>
+        <c:axId val="193950848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171305600"/>
+        <c:axId val="178457216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187204736"/>
+        <c:crossAx val="193950848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -945,7 +944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187204736"/>
+        <c:axId val="193950848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,14 +955,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171305600"/>
+        <c:crossAx val="178457216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -992,6 +990,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>成绩表</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1206,49 +1223,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>鲁帆</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.0_ ">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1258,11 +1232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="218217088"/>
-        <c:axId val="218334336"/>
+        <c:axId val="194382848"/>
+        <c:axId val="194401024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218217088"/>
+        <c:axId val="194382848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218334336"/>
+        <c:crossAx val="194401024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1279,7 +1253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218334336"/>
+        <c:axId val="194401024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,10 +1264,21 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218217088"/>
+        <c:crossAx val="194382848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+      </c:dTable>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1304,6 +1289,14 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1368,6 +1361,9 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1440,12 +1436,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="187655296"/>
-        <c:axId val="187674624"/>
+        <c:axId val="194464000"/>
+        <c:axId val="194487424"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="187655296"/>
+        <c:axId val="194464000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187674624"/>
+        <c:crossAx val="194487424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1462,7 +1458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187674624"/>
+        <c:axId val="194487424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187655296"/>
+        <c:crossAx val="194464000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1606,11 +1602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187974016"/>
-        <c:axId val="187975552"/>
+        <c:axId val="194782720"/>
+        <c:axId val="194784256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187974016"/>
+        <c:axId val="194782720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187975552"/>
+        <c:crossAx val="194784256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1627,7 +1623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187975552"/>
+        <c:axId val="194784256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187974016"/>
+        <c:crossAx val="194782720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1693,7 +1689,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1782,8 +1777,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187787904"/>
-        <c:axId val="187793792"/>
+        <c:axId val="194610688"/>
+        <c:axId val="194612224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1871,11 +1866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187796864"/>
-        <c:axId val="187795328"/>
+        <c:axId val="194623744"/>
+        <c:axId val="194622208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187787904"/>
+        <c:axId val="194610688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +1879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187793792"/>
+        <c:crossAx val="194612224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1892,7 +1887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187793792"/>
+        <c:axId val="194612224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,12 +1898,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187787904"/>
+        <c:crossAx val="194610688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187795328"/>
+        <c:axId val="194622208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,12 +1913,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187796864"/>
+        <c:crossAx val="194623744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="187796864"/>
+        <c:axId val="194623744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187795328"/>
+        <c:crossAx val="194622208"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +1943,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2045,20 +2039,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2779,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:I45"/>
     </sheetView>
   </sheetViews>
@@ -5602,8 +5596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6667,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
